--- a/docs/FetalPresentationCM.xlsx
+++ b/docs/FetalPresentationCM.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-13T11:56:10-05:00</t>
+    <t>2024-02-27T09:44:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -148,19 +148,19 @@
     <t>Breech presentation (finding)</t>
   </si>
   <si>
+    <t>http://terminology.hl7.org/CodeSystem/v3-NullFlavor</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
     <t>Other</t>
   </si>
   <si>
-    <t>163518000</t>
-  </si>
-  <si>
-    <t>On examination - fetal presentation unsure	Unknown fetal presentation (finding)</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/CodeSystem/v3-NullFlavor</t>
+    <t>OTH</t>
+  </si>
+  <si>
+    <t>other</t>
   </si>
   <si>
     <t>9</t>
@@ -169,10 +169,10 @@
     <t>Unknown</t>
   </si>
   <si>
-    <t>OTH</t>
-  </si>
-  <si>
-    <t>other</t>
+    <t>UNK</t>
+  </si>
+  <si>
+    <t>unknown</t>
   </si>
 </sst>
 </file>
@@ -441,7 +441,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -515,23 +515,6 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="E5" t="s" s="2">
-        <v>47</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -539,7 +522,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -573,7 +556,7 @@
         <v>33</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s" s="2">
         <v>33</v>
@@ -581,18 +564,35 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D3" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E4" t="s" s="2">
         <v>52</v>
       </c>
     </row>

--- a/docs/FetalPresentationCM.xlsx
+++ b/docs/FetalPresentationCM.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-27T09:44:15-05:00</t>
+    <t>2024-03-05T09:43:17-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/FetalPresentationCM.xlsx
+++ b/docs/FetalPresentationCM.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-05T09:43:17-05:00</t>
+    <t>2024-05-01T14:05:02-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
